--- a/projects/ojt_project/public/Completed_Attendance_Cybersecurity_Basics_March_25_29__2025.xlsx
+++ b/projects/ojt_project/public/Completed_Attendance_Cybersecurity_Basics_March_25_29__2025.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,24 +421,92 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Mika Santos</v>
+        <v>Anna Reyes</v>
       </c>
       <c r="B2" t="str">
-        <v>mika.santos@example.com</v>
+        <v>anna.reyes@example.com</v>
       </c>
       <c r="C2" t="str">
         <v>Female</v>
       </c>
       <c r="D2" t="str">
+        <v>National Government Agency</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Mika Santos</v>
+      </c>
+      <c r="B3" t="str">
+        <v>mika.santos@example.com</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Female</v>
+      </c>
+      <c r="D3" t="str">
         <v>State Universities and Colleges</v>
       </c>
-      <c r="E2">
-        <v>4</v>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Elaine Mendoza</v>
+      </c>
+      <c r="B4" t="str">
+        <v>elaine.mendoza@example.com</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Female</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Out of School Youth and Adult (OSYA)</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Marco Garcia</v>
+      </c>
+      <c r="B5" t="str">
+        <v>marco.garcia@example.com</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Male</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Private</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Kyle Sy</v>
+      </c>
+      <c r="B6" t="str">
+        <v>kyle.sy@example.com</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Male</v>
+      </c>
+      <c r="D6" t="str">
+        <v>State Universities and Colleges</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>